--- a/Archivos Excel/archivo.xlsx
+++ b/Archivos Excel/archivo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\InsumaAdm2\Desktop\Archivos\CICLO 2019-2020\CUATRI  DIC-MZO 19-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistemaInsuma\Pruebas\cargarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0C892-1A58-4AB6-8E0F-9A1A37B7B926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMER PARCIAL" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,25 @@
     <sheet name="CALIF FINAL" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'CALIF FINAL'!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRIMER PARCIAL'!$A$1:$M$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'CALIF FINAL'!$A$1:$F$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'PRIMER PARCIAL'!$A$1:$M$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'SEGUNDO PARCIAL'!$A$1:$M$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'TERCER PARCIAL '!$A$1:$M$36</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -96,6 +105,9 @@
     <t>PERIODO</t>
   </si>
   <si>
+    <t>CONCENTRADO DE  CALIFICACIONES TRIMESTRALES</t>
+  </si>
+  <si>
     <t>2do PARCIAL</t>
   </si>
   <si>
@@ -105,13 +117,112 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
+    <t>CUATRIMESTRAL AGOSTO-NOVIEMBRE  2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLICACIÓN DEL 5 DE AGOSTO AL 9 DE SEPTIEMBRE </t>
+  </si>
+  <si>
+    <t>ABUNDES MEDINA FATIMA DEL ROCIO</t>
+  </si>
+  <si>
+    <t>ARELLANO GONZALEZ MARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND CUELLAR ADRIAN ALEX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANSINO RAMIREZ RUBEN </t>
+  </si>
+  <si>
+    <t>DIAZ RUVALCABA OSCAR OSIEL</t>
+  </si>
+  <si>
+    <t>ESTRADA DE LIRA EVERARDO</t>
+  </si>
+  <si>
+    <t>FLORES VIRAMONTES LUIS FELIPE</t>
+  </si>
+  <si>
     <t>GUERRERO SALAZAR NOE CRUZ</t>
   </si>
   <si>
+    <t>LANDI THIAGO</t>
+  </si>
+  <si>
+    <t>LOPEZ GUTIERREZ JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>LUIS CUELLAR ANDREA NICOLE</t>
+  </si>
+  <si>
+    <t>LUNA SANCHEZ ARELY PAOLA</t>
+  </si>
+  <si>
+    <t>MARTINEZ CASTAÑON XIMENA ITATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA SERENO MARIA CLARA </t>
+  </si>
+  <si>
+    <t>MOLINA MARTINEZ LUIS MAURICIO</t>
+  </si>
+  <si>
+    <t>NUÑEZ GALLEGOS FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ HERNANDEZ SANTIAGO </t>
+  </si>
+  <si>
+    <t>OSORIO MORFIN MARIANA ELIZABETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADILLA HERNANDEZ JULIO AGUSTIN </t>
+  </si>
+  <si>
+    <t>RAMIREZ CISNEROS FERNANDO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DE LUNA ELIAM</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ LOERA MARIA REGINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO ALEMAN BELINDA BERENICE </t>
+  </si>
+  <si>
+    <t>SOTO JIMENEZ DIEGO ISAAC</t>
+  </si>
+  <si>
+    <t>TAPIA ROJERO DENISSE GUADALUPE</t>
+  </si>
+  <si>
+    <t>VAZQUEZ LOPEZ ADRIAN</t>
+  </si>
+  <si>
+    <t>VITAL FLORES JOSE EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ PADILLA MARIA GUADALUPE </t>
+  </si>
+  <si>
     <t>PENDIENTE PARA 2DO. PARCIAL</t>
   </si>
   <si>
+    <t>APLICACIÓN DEL 17 DE SEPTIEMBRE AL 9 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>APLICACIÓN DEL 17 DE OCTUBRE AL 22 DE NOVIEMBRE</t>
+  </si>
+  <si>
     <t>CUATRIMESTRE</t>
+  </si>
+  <si>
+    <t>AGO-NOV 19</t>
+  </si>
+  <si>
+    <t>1°</t>
   </si>
   <si>
     <r>
@@ -164,64 +275,233 @@
     </r>
   </si>
   <si>
-    <t>BASCHUK RAMIREZ CARLOS GERARDO</t>
-  </si>
-  <si>
-    <t>CERVANTES ZAMORA CARLOS ALONSO</t>
-  </si>
-  <si>
-    <t>GONZALEZ ARELLANO KARLA FERNANDA</t>
-  </si>
-  <si>
-    <t>LOPEZ MARIN DANIEL DE JESUS</t>
-  </si>
-  <si>
-    <t>SANDOVAL FLORES JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SANTANA VILLALOBOS OBED SALOMON</t>
-  </si>
-  <si>
-    <t>SILVA MARTINEZ RODRIGO FABIAN</t>
-  </si>
-  <si>
-    <t>GALLEGOS NAJERA DIEGO ALEXANDER</t>
-  </si>
-  <si>
-    <t>ESPINO BALLIN SERGIO EMILIO</t>
-  </si>
-  <si>
-    <t>ARIAS DELGADILLO FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>LEMUS LOPEZ ANA PAULA</t>
-  </si>
-  <si>
-    <t>CALVILLO VAZQUEZ GUILLERMO EMMANUEL</t>
-  </si>
-  <si>
-    <t>VILLASANA ROCHE DAVID SANTIAGO</t>
-  </si>
-  <si>
-    <t>CUATRIMESTRAL DICIEMBRE-MARZO 2019-2020</t>
-  </si>
-  <si>
-    <t>APLICACIÓN DEL 25 DE NOVIEMBRE AL 20 DE DICIEMBRE</t>
-  </si>
-  <si>
-    <t>APLICACIÓN DEL 6 DE ENERO AL 14 DE FEBRERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLICACIÓN DEL 17 DE FEBRERO AL 27 DE MARZO </t>
-  </si>
-  <si>
-    <t>CONCENTRADO DE  CALIFICACIONES CUATRIMESTRALES</t>
+    <t>INFORMATICA I</t>
+  </si>
+  <si>
+    <t>ADRIAN CHAVEZ OLIVARES</t>
+  </si>
+  <si>
+    <t>EXAMEN</t>
+  </si>
+  <si>
+    <t>LIBRETA</t>
+  </si>
+  <si>
+    <t>INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>TAREAS/PRACTICAS</t>
+  </si>
+  <si>
+    <t>NO PRESENTÓ EXAMEN</t>
+  </si>
+  <si>
+    <t>CERVANTES RAMIREZ ERNESTO</t>
+  </si>
+  <si>
+    <t>LARA MONROY DENISSE ALESSANDRA</t>
+  </si>
+  <si>
+    <t>INFORMATICA 1</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO INVESTIGACIONES, NO TAREAS</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO INVESTIGACIONES, NO PRACTICAS COMPLETAS, NO TAREAS</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO PRACTICAS, NO INVESTIGACIONES, NO TAREAS</t>
+  </si>
+  <si>
+    <t>NO TAREAS, NO LIBRETA COMPLETA</t>
+  </si>
+  <si>
+    <t>NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO TAREAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO INVESTIGACIONES, NO PRACTICAS COMPLETAS</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO TAREAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO TAREAS, NO INVESTIGACIONES, NO PRACTICAS COMPLETAS</t>
+  </si>
+  <si>
+    <t>NO TAREAS, NO PRACTICAS COMPLESTAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO LIBRETA, NO PRACTICAS COMPLETAS, NO INVESTIGACIONES COMPLETAS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIN DERECHO A EXAMEN POR FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA, NO PRACTICAS, NO INVESTIGACIONES, NO TAREAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO PRESENTÓ EXAMEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA, NO INVESTIGACIONES, NO TAREAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIN DERECHO A EXAMEN POR FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA, NO TAREAS, NO PRACTICAS, NO INVESTIGACIONES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIN DERECHO A EXAMEN POR FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA COMPLETA, NO TAREAS, NO PRACTICAS, NO INVESTIGACIONES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIN DERECHO A EXAMEN POR FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA , NO TAREAS, NO PRACTICAS, NO INVESTIGACIONES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIN DERECHO A EXAMEN POR FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA, NO TAREAS, NO PRACTICAS COMPLETAS, NO INVESTIGACIONES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO PRESENTÓ EXAMEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>, NO LIBRETA, NO TAREAS, NO INVESTIGACIONES</t>
+    </r>
+  </si>
+  <si>
+    <t>PRACTICAS</t>
+  </si>
+  <si>
+    <t>SIN DERECHO A EXAMEN, NO PRACTICAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>SIN DERECHO A EXAMEN, NO PRACTICAS COMPLETAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO PRESENTÓ EXAMEN, NO PRACTICAS COMPLETAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO PRACTICAS COMPLETAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>NO PRACTICAS, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>SOLO UNA PRACTICA, NO INVESTIGACIONES</t>
+  </si>
+  <si>
+    <t>FALTÓ UNA INVESTIGACION</t>
+  </si>
+  <si>
+    <t>ADRIAN CHAVEZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -465,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1015,26 +1295,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1044,7 +1311,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1060,6 +1340,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1086,6 +1379,63 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1149,7 +1499,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1338,30 +1688,30 @@
     <xf numFmtId="1" fontId="7" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,15 +1730,94 @@
     <xf numFmtId="164" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,7 +1839,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,18 +1890,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="46" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="43" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="33" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="46" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="43" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="42" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,113 +1956,88 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="43" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="42" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="22" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="33" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="58">
-    <cellStyle name="Millares 2" xfId="56"/>
+    <cellStyle name="Millares 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 14" xfId="3"/>
-    <cellStyle name="Normal 15" xfId="4"/>
-    <cellStyle name="Normal 16" xfId="2"/>
-    <cellStyle name="Normal 18" xfId="5"/>
-    <cellStyle name="Normal 19" xfId="6"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 20" xfId="8"/>
-    <cellStyle name="Normal 21" xfId="9"/>
-    <cellStyle name="Normal 22" xfId="10"/>
-    <cellStyle name="Normal 23" xfId="11"/>
-    <cellStyle name="Normal 24" xfId="12"/>
-    <cellStyle name="Normal 25" xfId="13"/>
-    <cellStyle name="Normal 26" xfId="14"/>
-    <cellStyle name="Normal 27" xfId="15"/>
-    <cellStyle name="Normal 28" xfId="16"/>
-    <cellStyle name="Normal 29" xfId="17"/>
-    <cellStyle name="Normal 3" xfId="57"/>
-    <cellStyle name="Normal 30" xfId="18"/>
-    <cellStyle name="Normal 31" xfId="19"/>
-    <cellStyle name="Normal 32" xfId="20"/>
-    <cellStyle name="Normal 33" xfId="21"/>
-    <cellStyle name="Normal 34" xfId="22"/>
-    <cellStyle name="Normal 35" xfId="23"/>
-    <cellStyle name="Normal 36" xfId="24"/>
-    <cellStyle name="Normal 37" xfId="25"/>
-    <cellStyle name="Normal 38" xfId="26"/>
-    <cellStyle name="Normal 39" xfId="27"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal 40" xfId="28"/>
-    <cellStyle name="Normal 41" xfId="29"/>
-    <cellStyle name="Normal 42" xfId="30"/>
-    <cellStyle name="Normal 43" xfId="31"/>
-    <cellStyle name="Normal 44" xfId="32"/>
-    <cellStyle name="Normal 45" xfId="33"/>
-    <cellStyle name="Normal 46" xfId="34"/>
-    <cellStyle name="Normal 47" xfId="35"/>
-    <cellStyle name="Normal 48" xfId="36"/>
-    <cellStyle name="Normal 49" xfId="37"/>
-    <cellStyle name="Normal 5" xfId="38"/>
-    <cellStyle name="Normal 50" xfId="39"/>
-    <cellStyle name="Normal 51" xfId="40"/>
-    <cellStyle name="Normal 52" xfId="41"/>
-    <cellStyle name="Normal 53" xfId="42"/>
-    <cellStyle name="Normal 54" xfId="43"/>
-    <cellStyle name="Normal 55" xfId="44"/>
-    <cellStyle name="Normal 56" xfId="45"/>
-    <cellStyle name="Normal 57" xfId="46"/>
-    <cellStyle name="Normal 58" xfId="47"/>
-    <cellStyle name="Normal 59" xfId="48"/>
-    <cellStyle name="Normal 6" xfId="55"/>
-    <cellStyle name="Normal 60" xfId="49"/>
-    <cellStyle name="Normal 61" xfId="50"/>
-    <cellStyle name="Normal 62" xfId="51"/>
-    <cellStyle name="Normal 63" xfId="52"/>
-    <cellStyle name="Normal 64" xfId="53"/>
-    <cellStyle name="Normal 65" xfId="54"/>
+    <cellStyle name="Normal 14" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 15" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 16" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 18" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 19" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 20" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 21" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 22" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 23" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 24" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 25" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 26" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 27" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 28" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 29" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 30" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 31" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 32" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 33" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 34" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 35" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 36" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 37" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 38" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 39" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 40" xfId="28" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 41" xfId="29" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 42" xfId="30" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 43" xfId="31" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 44" xfId="32" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 45" xfId="33" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 46" xfId="34" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 47" xfId="35" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 48" xfId="36" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 49" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 50" xfId="39" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 51" xfId="40" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 52" xfId="41" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 53" xfId="42" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 54" xfId="43" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 55" xfId="44" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 56" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 57" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 58" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 59" xfId="48" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 6" xfId="55" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 60" xfId="49" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 61" xfId="50" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 62" xfId="51" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 63" xfId="52" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 64" xfId="53" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 65" xfId="54" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2011,13 +2460,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352955</xdr:colOff>
+      <xdr:colOff>88371</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>249768</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62206</xdr:rowOff>
     </xdr:to>
@@ -2047,8 +2496,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6671205" y="0"/>
-          <a:ext cx="1187979" cy="506706"/>
+          <a:off x="7746471" y="0"/>
+          <a:ext cx="1187979" cy="509881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2066,13 +2515,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149679</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2095,8 +2544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149679" y="0"/>
-          <a:ext cx="802821" cy="624417"/>
+          <a:off x="149679" y="68036"/>
+          <a:ext cx="887488" cy="870570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,6 +2633,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2219,6 +2685,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2394,15 +2877,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2416,38 +2899,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -2469,17 +2952,19 @@
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="C4" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="25"/>
       <c r="M4" s="64"/>
     </row>
@@ -2488,17 +2973,19 @@
       <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="C5" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="64"/>
       <c r="M5" s="66"/>
     </row>
@@ -2518,41 +3005,49 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="93" t="s">
+      <c r="A7" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="69"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="71">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="90" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="97" t="s">
-        <v>24</v>
+      <c r="M7" s="126" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="68" t="s">
         <v>10</v>
       </c>
@@ -2577,44 +3072,52 @@
       <c r="J8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="98"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="127"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>1</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47">
+      <c r="B9" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="97">
+        <v>8.75</v>
+      </c>
+      <c r="D9" s="95">
         <f>C9*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="48">
+        <v>4.375</v>
+      </c>
+      <c r="E9" s="91">
+        <v>10</v>
+      </c>
+      <c r="F9" s="96">
         <f>E9*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="47">
-        <f t="shared" ref="H9:H36" si="0">G9*H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="48">
-        <f t="shared" ref="J9:J36" si="1">I9*J$7</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
+        <v>2</v>
+      </c>
+      <c r="G9" s="91">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H9" s="96">
+        <f t="shared" ref="H9:H38" si="0">G9*H$7</f>
+        <v>1.0285714285714287</v>
+      </c>
+      <c r="I9" s="91">
+        <v>0</v>
+      </c>
+      <c r="J9" s="96">
+        <f t="shared" ref="J9:J38" si="1">I9*J$7</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="101">
         <f>SUM(J9,H9,F9,D9)</f>
-        <v>0</v>
+        <v>7.4035714285714285</v>
       </c>
       <c r="L9" s="67">
         <f>IF(K9&gt;6,_xlfn.NUMBERVALUE(FIXED(K9,0)),ROUNDDOWN(K9,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9" s="16"/>
     </row>
@@ -2622,36 +3125,44 @@
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="47">
-        <f t="shared" ref="D10:D36" si="2">C10*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="48">
-        <f t="shared" ref="F10:F36" si="3">E10*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="48">
+      <c r="B10" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="98">
+        <v>7.25</v>
+      </c>
+      <c r="D10" s="96">
+        <f t="shared" ref="D10:D38" si="2">C10*D$7</f>
+        <v>3.625</v>
+      </c>
+      <c r="E10" s="93">
+        <v>10</v>
+      </c>
+      <c r="F10" s="96">
+        <f t="shared" ref="F10:F38" si="3">E10*F$7</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="100">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H10" s="96">
+        <f t="shared" si="0"/>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="I10" s="93">
+        <v>0</v>
+      </c>
+      <c r="J10" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" ref="K10:K17" si="4">SUM(J10,H10,F10,D10)</f>
-        <v>0</v>
+        <v>6.1107142857142858</v>
       </c>
       <c r="L10" s="67">
         <f t="shared" ref="L10:L33" si="5">IF(K10&gt;6,_xlfn.NUMBERVALUE(FIXED(K10,0)),ROUNDDOWN(K10,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" s="10"/>
     </row>
@@ -2659,36 +3170,44 @@
       <c r="A11" s="38">
         <v>3</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="48">
+      <c r="B11" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="D11" s="96">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="E11" s="93">
+        <v>8</v>
+      </c>
+      <c r="F11" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="48">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="100">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H11" s="96">
+        <f t="shared" si="0"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="I11" s="93">
+        <v>0</v>
+      </c>
+      <c r="J11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.3464285714285715</v>
       </c>
       <c r="L11" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M11" s="10"/>
     </row>
@@ -2696,36 +3215,44 @@
       <c r="A12" s="39">
         <v>4</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="48">
+      <c r="C12" s="98">
+        <v>9</v>
+      </c>
+      <c r="D12" s="96">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="93">
+        <v>10</v>
+      </c>
+      <c r="F12" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="48">
+        <v>2</v>
+      </c>
+      <c r="G12" s="100">
+        <v>5</v>
+      </c>
+      <c r="H12" s="96">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="93">
+        <v>0</v>
+      </c>
+      <c r="J12" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L12" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M12" s="10"/>
     </row>
@@ -2733,36 +3260,44 @@
       <c r="A13" s="38">
         <v>5</v>
       </c>
-      <c r="B13" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="48">
+      <c r="B13" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="98">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="96">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="E13" s="93">
+        <v>2.6</v>
+      </c>
+      <c r="F13" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="G13" s="100">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="H13" s="96">
+        <f t="shared" si="0"/>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="I13" s="93">
+        <v>0</v>
+      </c>
+      <c r="J13" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2271428571428569</v>
       </c>
       <c r="L13" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="10"/>
     </row>
@@ -2770,36 +3305,44 @@
       <c r="A14" s="39">
         <v>6</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="48">
+      <c r="B14" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="99">
+        <v>4.75</v>
+      </c>
+      <c r="D14" s="96">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+      <c r="E14" s="93">
+        <v>10</v>
+      </c>
+      <c r="F14" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="48">
+        <v>2</v>
+      </c>
+      <c r="G14" s="100">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="H14" s="96">
+        <f t="shared" si="0"/>
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="I14" s="93">
+        <v>0</v>
+      </c>
+      <c r="J14" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.3178571428571431</v>
       </c>
       <c r="L14" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="11"/>
     </row>
@@ -2807,75 +3350,89 @@
       <c r="A15" s="38">
         <v>7</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="48">
+      <c r="B15" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="98">
+        <v>5</v>
+      </c>
+      <c r="D15" s="96">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="93">
+        <v>2</v>
+      </c>
+      <c r="F15" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="100">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H15" s="96">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="I15" s="93">
+        <v>0</v>
+      </c>
+      <c r="J15" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.1857142857142859</v>
       </c>
       <c r="L15" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="81" t="s">
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>8</v>
       </c>
-      <c r="B16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="48">
+      <c r="B16" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="98">
+        <v>4</v>
+      </c>
+      <c r="D16" s="96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="93">
+        <v>4</v>
+      </c>
+      <c r="F16" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="100">
+        <v>0</v>
+      </c>
+      <c r="H16" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="93">
+        <v>0</v>
+      </c>
+      <c r="J16" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="10"/>
     </row>
@@ -2883,73 +3440,91 @@
       <c r="A17" s="38">
         <v>9</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="48">
+      <c r="B17" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="98">
+        <v>0</v>
+      </c>
+      <c r="D17" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="93">
+        <v>7</v>
+      </c>
+      <c r="F17" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="48">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G17" s="100">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="H17" s="96">
+        <f t="shared" si="0"/>
+        <v>1.342857142857143</v>
+      </c>
+      <c r="I17" s="93">
+        <v>0</v>
+      </c>
+      <c r="J17" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.7428571428571429</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
         <v>10</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="48">
+      <c r="B18" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="98">
+        <v>7.25</v>
+      </c>
+      <c r="D18" s="96">
+        <f t="shared" si="2"/>
+        <v>3.625</v>
+      </c>
+      <c r="E18" s="93">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F18" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="48">
+        <v>1.64</v>
+      </c>
+      <c r="G18" s="100">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="H18" s="96">
+        <f t="shared" si="0"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="I18" s="93">
+        <v>0</v>
+      </c>
+      <c r="J18" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" ref="K18:K21" si="6">SUM(J18,H18,F18,D18)</f>
-        <v>0</v>
+        <v>6.0078571428571426</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" s="10"/>
     </row>
@@ -2957,36 +3532,44 @@
       <c r="A19" s="38">
         <v>11</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="48">
+      <c r="B19" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="98">
+        <v>7.5</v>
+      </c>
+      <c r="D19" s="96">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="E19" s="93">
+        <v>0</v>
+      </c>
+      <c r="F19" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="48">
+      <c r="G19" s="100">
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="H19" s="96">
+        <f t="shared" si="0"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="I19" s="93">
+        <v>0</v>
+      </c>
+      <c r="J19" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.8071428571428569</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="10"/>
     </row>
@@ -2994,36 +3577,44 @@
       <c r="A20" s="39">
         <v>12</v>
       </c>
-      <c r="B20" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="48">
+      <c r="B20" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="98">
+        <v>10</v>
+      </c>
+      <c r="D20" s="96">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="93">
+        <v>10</v>
+      </c>
+      <c r="F20" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G20" s="100">
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="H20" s="96">
+        <f t="shared" si="0"/>
+        <v>1.0571428571428572</v>
+      </c>
+      <c r="I20" s="93">
+        <v>5</v>
+      </c>
+      <c r="J20" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.5571428571428569</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M20" s="10"/>
     </row>
@@ -3031,36 +3622,44 @@
       <c r="A21" s="38">
         <v>13</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="48">
+      <c r="B21" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="98">
+        <v>8.5</v>
+      </c>
+      <c r="D21" s="96">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="E21" s="93">
+        <v>8</v>
+      </c>
+      <c r="F21" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6</v>
+      </c>
+      <c r="G21" s="100">
+        <v>7</v>
+      </c>
+      <c r="H21" s="96">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I21" s="93">
+        <v>5</v>
+      </c>
+      <c r="J21" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M21" s="10"/>
     </row>
@@ -3068,36 +3667,44 @@
       <c r="A22" s="39">
         <v>14</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="48">
+      <c r="B22" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="98">
+        <v>7.75</v>
+      </c>
+      <c r="D22" s="96">
+        <f t="shared" si="2"/>
+        <v>3.875</v>
+      </c>
+      <c r="E22" s="93">
+        <v>10</v>
+      </c>
+      <c r="F22" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="100">
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="H22" s="96">
+        <f t="shared" si="0"/>
+        <v>1.9142857142857144</v>
+      </c>
+      <c r="I22" s="93">
+        <v>10</v>
+      </c>
+      <c r="J22" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" ref="K22:K35" si="7">SUM(J22,H22,F22,D22)</f>
-        <v>0</v>
+        <v>8.7892857142857146</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M22" s="10"/>
     </row>
@@ -3105,34 +3712,44 @@
       <c r="A23" s="38">
         <v>15</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="48">
+      <c r="B23" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="D23" s="96">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="E23" s="93">
+        <v>10</v>
+      </c>
+      <c r="F23" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="48">
+        <v>2</v>
+      </c>
+      <c r="G23" s="100">
+        <v>4</v>
+      </c>
+      <c r="H23" s="96">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="93">
+        <v>0</v>
+      </c>
+      <c r="J23" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.1749999999999998</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M23" s="10"/>
     </row>
@@ -3140,69 +3757,91 @@
       <c r="A24" s="39">
         <v>16</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="48">
+      <c r="B24" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="98">
+        <v>0</v>
+      </c>
+      <c r="D24" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="93">
+        <v>2</v>
+      </c>
+      <c r="F24" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="100">
+        <v>0</v>
+      </c>
+      <c r="H24" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="93">
+        <v>0</v>
+      </c>
+      <c r="J24" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>17</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="48">
+      <c r="B25" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="98">
+        <v>8.5</v>
+      </c>
+      <c r="D25" s="96">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="E25" s="93">
+        <v>6</v>
+      </c>
+      <c r="F25" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="48">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G25" s="100">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H25" s="96">
+        <f t="shared" si="0"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="I25" s="93">
+        <v>0</v>
+      </c>
+      <c r="J25" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.8214285714285712</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="10"/>
     </row>
@@ -3210,24 +3849,26 @@
       <c r="A26" s="39">
         <v>18</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="48">
+      <c r="B26" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="48">
+      <c r="G26" s="93"/>
+      <c r="H26" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="93"/>
+      <c r="J26" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3239,40 +3880,52 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M26" s="84"/>
+      <c r="M26" s="81" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <v>19</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="48">
+      <c r="B27" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="D27" s="96">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="E27" s="93">
+        <v>10</v>
+      </c>
+      <c r="F27" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="53"/>
-      <c r="J27" s="48">
+        <v>2</v>
+      </c>
+      <c r="G27" s="93">
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="H27" s="96">
+        <f t="shared" si="0"/>
+        <v>1.0857142857142859</v>
+      </c>
+      <c r="I27" s="93">
+        <v>0</v>
+      </c>
+      <c r="J27" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.8357142857142854</v>
       </c>
       <c r="L27" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M27" s="10"/>
     </row>
@@ -3280,34 +3933,44 @@
       <c r="A28" s="39">
         <v>20</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="48">
+      <c r="B28" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="98">
+        <v>8.5</v>
+      </c>
+      <c r="D28" s="96">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="E28" s="93">
+        <v>10</v>
+      </c>
+      <c r="F28" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="48">
+        <v>2</v>
+      </c>
+      <c r="G28" s="93">
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="H28" s="96">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="I28" s="93">
+        <v>0</v>
+      </c>
+      <c r="J28" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.9642857142857144</v>
       </c>
       <c r="L28" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M28" s="10"/>
     </row>
@@ -3315,34 +3978,44 @@
       <c r="A29" s="38">
         <v>21</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="48">
+      <c r="B29" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="D29" s="96">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="E29" s="93">
+        <v>10</v>
+      </c>
+      <c r="F29" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="48">
+        <v>2</v>
+      </c>
+      <c r="G29" s="93">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H29" s="96">
+        <f t="shared" si="0"/>
+        <v>0.54285714285714293</v>
+      </c>
+      <c r="I29" s="93">
+        <v>0</v>
+      </c>
+      <c r="J29" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.9178571428571427</v>
       </c>
       <c r="L29" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29" s="10"/>
     </row>
@@ -3350,34 +4023,44 @@
       <c r="A30" s="38">
         <v>22</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="48">
+      <c r="B30" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="98">
+        <v>5</v>
+      </c>
+      <c r="D30" s="96">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="93">
+        <v>0</v>
+      </c>
+      <c r="F30" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="48">
+      <c r="G30" s="93">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="H30" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571435</v>
+      </c>
+      <c r="I30" s="93">
+        <v>0</v>
+      </c>
+      <c r="J30" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0142857142857142</v>
       </c>
       <c r="L30" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="10"/>
     </row>
@@ -3385,34 +4068,44 @@
       <c r="A31" s="38">
         <v>23</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="48">
+      <c r="B31" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="D31" s="96">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="E31" s="93">
+        <v>10</v>
+      </c>
+      <c r="F31" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="93">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="H31" s="96">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571435</v>
+      </c>
+      <c r="I31" s="93">
+        <v>5</v>
+      </c>
+      <c r="J31" s="96">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.3892857142857142</v>
       </c>
       <c r="L31" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M31" s="10"/>
     </row>
@@ -3420,34 +4113,44 @@
       <c r="A32" s="38">
         <v>24</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="48">
+      <c r="B32" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="98">
+        <v>8.5</v>
+      </c>
+      <c r="D32" s="96">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="E32" s="93">
+        <v>4</v>
+      </c>
+      <c r="F32" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="93">
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H32" s="96">
+        <f t="shared" si="0"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="I32" s="93">
+        <v>0</v>
+      </c>
+      <c r="J32" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.4214285714285717</v>
       </c>
       <c r="L32" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32" s="10"/>
     </row>
@@ -3455,34 +4158,44 @@
       <c r="A33" s="38">
         <v>25</v>
       </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="48">
+      <c r="B33" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="98">
+        <v>7.75</v>
+      </c>
+      <c r="D33" s="96">
+        <f t="shared" si="2"/>
+        <v>3.875</v>
+      </c>
+      <c r="E33" s="93">
+        <v>4</v>
+      </c>
+      <c r="F33" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G33" s="93">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H33" s="96">
+        <f t="shared" si="0"/>
+        <v>0.54285714285714293</v>
+      </c>
+      <c r="I33" s="93">
+        <v>0</v>
+      </c>
+      <c r="J33" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.2178571428571434</v>
       </c>
       <c r="L33" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="10"/>
     </row>
@@ -3490,24 +4203,26 @@
       <c r="A34" s="38">
         <v>26</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="48">
+      <c r="B34" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="48">
+      <c r="G34" s="93"/>
+      <c r="H34" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="93"/>
+      <c r="J34" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3516,144 +4231,234 @@
         <v>0</v>
       </c>
       <c r="L34" s="67">
-        <f t="shared" ref="L34:L36" si="8">J34+H34+F34+D34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="84"/>
+        <f t="shared" ref="L34:L38" si="8">J34+H34+F34+D34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38">
         <v>27</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="48">
+      <c r="B35" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="D35" s="96">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="E35" s="93">
+        <v>9</v>
+      </c>
+      <c r="F35" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="G35" s="93">
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="H35" s="96">
+        <f t="shared" si="0"/>
+        <v>1.4571428571428573</v>
+      </c>
+      <c r="I35" s="93">
+        <v>0</v>
+      </c>
+      <c r="J35" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.6321428571428571</v>
       </c>
       <c r="L35" s="67">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="84"/>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.6321428571428571</v>
+      </c>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38">
         <v>28</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="48">
+      <c r="B36" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="48">
+      <c r="G36" s="93"/>
+      <c r="H36" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="93"/>
+      <c r="J36" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="9">SUM(J36,H36,F36,D36)</f>
+        <f t="shared" ref="K36:K38" si="9">SUM(J36,H36,F36,D36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="67">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M36" s="85"/>
-    </row>
-    <row r="37" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="9" t="s">
+      <c r="M36" s="82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="85">
+        <v>29</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="98"/>
+      <c r="D37" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="93"/>
+      <c r="F37" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="93"/>
+      <c r="J37" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="103"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85">
+        <v>30</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="107"/>
+      <c r="D38" s="86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="108"/>
+      <c r="F38" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="108"/>
+      <c r="H38" s="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="108"/>
+      <c r="J38" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="104"/>
+    </row>
+    <row r="39" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="14">
+      <c r="C39" s="109"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="14">
         <f>AVERAGE(K9:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="63"/>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
+        <v>5.1191071428571435</v>
+      </c>
+      <c r="L39" s="63"/>
+      <c r="M39" s="105"/>
     </row>
     <row r="40" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="B41" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-    </row>
-    <row r="43" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+    </row>
+    <row r="43" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+    </row>
+    <row r="44" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+    </row>
     <row r="45" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="B9:B22">
-    <sortCondition ref="B9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:B25">
+    <sortCondition ref="B15"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J44:M44"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="L7:L8"/>
@@ -3665,10 +4470,10 @@
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
-  <conditionalFormatting sqref="L9:L36">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="L9:L38">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3680,15 +4485,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3698,42 +4503,42 @@
     <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="122" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -3755,17 +4560,19 @@
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="C4" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="25"/>
       <c r="M4" s="64"/>
     </row>
@@ -3774,17 +4581,19 @@
       <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="C5" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="64"/>
       <c r="M5" s="66"/>
     </row>
@@ -3804,41 +4613,49 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="52"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>67</v>
+      </c>
       <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="71">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52"/>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="90" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="126" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
@@ -3863,9 +4680,9 @@
       <c r="J8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="98"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="127"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
@@ -3873,37 +4690,47 @@
       </c>
       <c r="B9" s="79" t="str">
         <f>'PRIMER PARCIAL'!B9</f>
-        <v>ARIAS DELGADILLO FRANCISCO JAVIER</v>
-      </c>
-      <c r="C9" s="49"/>
+        <v>ABUNDES MEDINA FATIMA DEL ROCIO</v>
+      </c>
+      <c r="C9" s="49">
+        <v>10</v>
+      </c>
       <c r="D9" s="47">
         <f>C9*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="56"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="56">
+        <v>7.5</v>
+      </c>
       <c r="F9" s="57">
         <f>E9*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="54"/>
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="54">
+        <v>8</v>
+      </c>
       <c r="H9" s="47">
-        <f t="shared" ref="H9:H36" si="0">G9*H$7</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="53"/>
+        <f t="shared" ref="H9:H38" si="0">G9*H$7</f>
+        <v>1.6</v>
+      </c>
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
       <c r="J9" s="48">
-        <f t="shared" ref="J9:J36" si="1">I9*J$7</f>
+        <f t="shared" ref="J9:J38" si="1">I9*J$7</f>
         <v>0</v>
       </c>
       <c r="K9" s="15">
         <f>SUM(J9,H9,F9,D9)</f>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="L9" s="67">
         <f>IF(K9&gt;6,_xlfn.NUMBERVALUE(FIXED(K9,0)),ROUNDDOWN(K9,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
@@ -3911,37 +4738,47 @@
       </c>
       <c r="B10" s="79" t="str">
         <f>'PRIMER PARCIAL'!B10</f>
-        <v>BASCHUK RAMIREZ CARLOS GERARDO</v>
-      </c>
-      <c r="C10" s="50"/>
+        <v>ARELLANO GONZALEZ MARINA</v>
+      </c>
+      <c r="C10" s="50">
+        <v>8.5</v>
+      </c>
       <c r="D10" s="47">
-        <f t="shared" ref="D10:D36" si="2">C10*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="53"/>
+        <f t="shared" ref="D10:D38" si="2">C10*D$7</f>
+        <v>4.25</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0</v>
+      </c>
       <c r="F10" s="48">
-        <f t="shared" ref="F10:F36" si="3">E10*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="54"/>
+        <f t="shared" ref="F10:F38" si="3">E10*F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="54">
+        <v>8</v>
+      </c>
       <c r="H10" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="53"/>
+        <v>1.6</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0</v>
+      </c>
       <c r="J10" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" ref="K10:K25" si="4">SUM(J10,H10,F10,D10)</f>
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="L10" s="67">
         <f t="shared" ref="L10:L33" si="5">IF(K10&gt;6,_xlfn.NUMBERVALUE(FIXED(K10,0)),ROUNDDOWN(K10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="111" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
@@ -3949,37 +4786,47 @@
       </c>
       <c r="B11" s="79" t="str">
         <f>'PRIMER PARCIAL'!B11</f>
-        <v>CALVILLO VAZQUEZ GUILLERMO EMMANUEL</v>
-      </c>
-      <c r="C11" s="50"/>
+        <v xml:space="preserve">BRAND CUELLAR ADRIAN ALEX </v>
+      </c>
+      <c r="C11" s="50">
+        <v>8.5</v>
+      </c>
       <c r="D11" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="53"/>
+        <v>4.25</v>
+      </c>
+      <c r="E11" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F11" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="54">
+        <v>2.4</v>
+      </c>
       <c r="H11" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="53"/>
+        <v>0.48</v>
+      </c>
+      <c r="I11" s="53">
+        <v>0</v>
+      </c>
       <c r="J11" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="L11" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="111" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
@@ -3987,37 +4834,47 @@
       </c>
       <c r="B12" s="79" t="str">
         <f>'PRIMER PARCIAL'!B12</f>
-        <v>CERVANTES ZAMORA CARLOS ALONSO</v>
-      </c>
-      <c r="C12" s="50"/>
+        <v xml:space="preserve">CANSINO RAMIREZ RUBEN </v>
+      </c>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
       <c r="D12" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F12" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
       <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="53">
+        <v>0</v>
+      </c>
       <c r="J12" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="111" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
@@ -4025,37 +4882,47 @@
       </c>
       <c r="B13" s="79" t="str">
         <f>'PRIMER PARCIAL'!B13</f>
-        <v>ESPINO BALLIN SERGIO EMILIO</v>
-      </c>
-      <c r="C13" s="50"/>
+        <v>DIAZ RUVALCABA OSCAR OSIEL</v>
+      </c>
+      <c r="C13" s="50">
+        <v>1</v>
+      </c>
       <c r="D13" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F13" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0.8</v>
+      </c>
       <c r="H13" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="53"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="I13" s="53">
+        <v>0</v>
+      </c>
       <c r="J13" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="L13" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="111" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
@@ -4063,24 +4930,32 @@
       </c>
       <c r="B14" s="79" t="str">
         <f>'PRIMER PARCIAL'!B14</f>
-        <v>GALLEGOS NAJERA DIEGO ALEXANDER</v>
-      </c>
-      <c r="C14" s="51"/>
+        <v>ESTRADA DE LIRA EVERARDO</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0</v>
+      </c>
       <c r="D14" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
       <c r="F14" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="54">
+        <v>0</v>
+      </c>
       <c r="H14" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
       <c r="J14" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4093,7 +4968,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="M14" s="111" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
@@ -4101,37 +4978,47 @@
       </c>
       <c r="B15" s="79" t="str">
         <f>'PRIMER PARCIAL'!B15</f>
-        <v>GONZALEZ ARELLANO KARLA FERNANDA</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>FLORES VIRAMONTES LUIS FELIPE</v>
+      </c>
+      <c r="C15" s="50">
+        <v>6</v>
+      </c>
       <c r="D15" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F15" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="54">
+        <v>5.4</v>
+      </c>
       <c r="H15" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="53"/>
+        <v>1.08</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
       <c r="J15" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="L15" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
@@ -4141,35 +5028,45 @@
         <f>'PRIMER PARCIAL'!B16</f>
         <v>GUERRERO SALAZAR NOE CRUZ</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="50">
+        <v>0</v>
+      </c>
       <c r="D16" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
       <c r="F16" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="54">
+        <v>7</v>
+      </c>
       <c r="H16" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="53"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I16" s="53">
+        <v>0</v>
+      </c>
       <c r="J16" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="111" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
@@ -4177,37 +5074,47 @@
       </c>
       <c r="B17" s="79" t="str">
         <f>'PRIMER PARCIAL'!B17</f>
-        <v>LEMUS LOPEZ ANA PAULA</v>
-      </c>
-      <c r="C17" s="50"/>
+        <v>LANDI THIAGO</v>
+      </c>
+      <c r="C17" s="50">
+        <v>5.5</v>
+      </c>
       <c r="D17" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="53"/>
+        <v>2.75</v>
+      </c>
+      <c r="E17" s="53">
+        <v>10</v>
+      </c>
       <c r="F17" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="54"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="54">
+        <v>9</v>
+      </c>
       <c r="H17" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="53"/>
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="53">
+        <v>5</v>
+      </c>
       <c r="J17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
@@ -4215,37 +5122,47 @@
       </c>
       <c r="B18" s="79" t="str">
         <f>'PRIMER PARCIAL'!B18</f>
-        <v>LOPEZ MARIN DANIEL DE JESUS</v>
-      </c>
-      <c r="C18" s="50"/>
+        <v>LOPEZ GUTIERREZ JESUS ANTONIO</v>
+      </c>
+      <c r="C18" s="50">
+        <v>6.5</v>
+      </c>
       <c r="D18" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="53"/>
+        <v>3.25</v>
+      </c>
+      <c r="E18" s="53">
+        <v>5</v>
+      </c>
       <c r="F18" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="54">
+        <v>4</v>
+      </c>
       <c r="H18" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="53"/>
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="53">
+        <v>10</v>
+      </c>
       <c r="J18" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="M18" s="111" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
@@ -4253,37 +5170,47 @@
       </c>
       <c r="B19" s="79" t="str">
         <f>'PRIMER PARCIAL'!B19</f>
-        <v>SANDOVAL FLORES JOSE ANTONIO</v>
-      </c>
-      <c r="C19" s="50"/>
+        <v>LUIS CUELLAR ANDREA NICOLE</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
       <c r="D19" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F19" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="54">
+        <v>2</v>
+      </c>
       <c r="H19" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="53"/>
+        <v>0.4</v>
+      </c>
+      <c r="I19" s="53">
+        <v>0</v>
+      </c>
       <c r="J19" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
@@ -4291,37 +5218,47 @@
       </c>
       <c r="B20" s="79" t="str">
         <f>'PRIMER PARCIAL'!B20</f>
-        <v>SANTANA VILLALOBOS OBED SALOMON</v>
-      </c>
-      <c r="C20" s="50"/>
+        <v>LUNA SANCHEZ ARELY PAOLA</v>
+      </c>
+      <c r="C20" s="50">
+        <v>10</v>
+      </c>
       <c r="D20" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="53">
+        <v>10</v>
+      </c>
       <c r="F20" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="54"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="54">
+        <v>7</v>
+      </c>
       <c r="H20" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="53"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
       <c r="J20" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="M20" s="111" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
@@ -4329,37 +5266,47 @@
       </c>
       <c r="B21" s="79" t="str">
         <f>'PRIMER PARCIAL'!B21</f>
-        <v>SILVA MARTINEZ RODRIGO FABIAN</v>
-      </c>
-      <c r="C21" s="50"/>
+        <v>MARTINEZ CASTAÑON XIMENA ITATI</v>
+      </c>
+      <c r="C21" s="50">
+        <v>10</v>
+      </c>
       <c r="D21" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="53">
+        <v>7.5</v>
+      </c>
       <c r="F21" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="54"/>
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="54">
+        <v>6</v>
+      </c>
       <c r="H21" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="53"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I21" s="53">
+        <v>0</v>
+      </c>
       <c r="J21" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="111" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
@@ -4367,328 +5314,416 @@
       </c>
       <c r="B22" s="79" t="str">
         <f>'PRIMER PARCIAL'!B22</f>
-        <v>VILLASANA ROCHE DAVID SANTIAGO</v>
-      </c>
-      <c r="C22" s="50"/>
+        <v xml:space="preserve">MEDINA SERENO MARIA CLARA </v>
+      </c>
+      <c r="C22" s="50">
+        <v>9.5</v>
+      </c>
       <c r="D22" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="53"/>
+        <v>4.75</v>
+      </c>
+      <c r="E22" s="53">
+        <v>10</v>
+      </c>
       <c r="F22" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="54"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="54">
+        <v>10</v>
+      </c>
       <c r="H22" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="53">
+        <v>0</v>
+      </c>
       <c r="J22" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L22" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="M22" s="111" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>15</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="79" t="str">
         <f>'PRIMER PARCIAL'!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="50"/>
+        <v>MOLINA MARTINEZ LUIS MAURICIO</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0</v>
+      </c>
       <c r="D23" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="53">
+        <v>5</v>
+      </c>
       <c r="F23" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="54"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="54">
+        <v>2</v>
+      </c>
       <c r="H23" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="53"/>
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="53">
+        <v>0</v>
+      </c>
       <c r="J23" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="111" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>16</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="79" t="str">
         <f>'PRIMER PARCIAL'!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="50"/>
+        <v>NUÑEZ GALLEGOS FRANCISCO JAVIER</v>
+      </c>
+      <c r="C24" s="50">
+        <v>9</v>
+      </c>
       <c r="D24" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="53"/>
+        <v>4.5</v>
+      </c>
+      <c r="E24" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F24" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="54">
+        <v>8</v>
+      </c>
       <c r="H24" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="53"/>
+        <v>1.6</v>
+      </c>
+      <c r="I24" s="53">
+        <v>0</v>
+      </c>
       <c r="J24" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="111" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>17</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="79" t="str">
         <f>'PRIMER PARCIAL'!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v xml:space="preserve">ORTIZ HERNANDEZ SANTIAGO </v>
+      </c>
+      <c r="C25" s="50">
+        <v>0</v>
+      </c>
       <c r="D25" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F25" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="54">
+        <v>0</v>
+      </c>
       <c r="H25" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="53"/>
+      <c r="I25" s="53">
+        <v>0</v>
+      </c>
       <c r="J25" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="111" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>18</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="79" t="str">
         <f>'PRIMER PARCIAL'!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="50"/>
+        <v>OSORIO MORFIN MARIANA ELIZABETH</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0</v>
+      </c>
       <c r="D26" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F26" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="55">
+        <v>3</v>
+      </c>
       <c r="H26" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="53"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I26" s="53">
+        <v>0</v>
+      </c>
       <c r="J26" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="15">
-        <f t="shared" ref="K26:K36" si="6">SUM(J26,H26,F26,D26)</f>
-        <v>0</v>
+        <f t="shared" ref="K26:K38" si="6">SUM(J26,H26,F26,D26)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L26" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="111" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <v>19</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="79" t="str">
         <f>'PRIMER PARCIAL'!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="50"/>
+        <v xml:space="preserve">PADILLA HERNANDEZ JULIO AGUSTIN </v>
+      </c>
+      <c r="C27" s="50">
+        <v>0</v>
+      </c>
       <c r="D27" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E27" s="53"/>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
       <c r="F27" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="55">
+        <v>2</v>
+      </c>
       <c r="H27" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="53"/>
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
       <c r="J27" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L27" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="16"/>
+      <c r="M27" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>20</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="79" t="str">
         <f>'PRIMER PARCIAL'!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="50"/>
+        <v>RAMIREZ CISNEROS FERNANDO</v>
+      </c>
+      <c r="C28" s="50">
+        <v>0</v>
+      </c>
       <c r="D28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F28" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="55">
+        <v>0</v>
+      </c>
       <c r="H28" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
       <c r="J28" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L28" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M28" s="16"/>
+      <c r="M28" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
         <v>21</v>
       </c>
-      <c r="B29" s="79">
+      <c r="B29" s="79" t="str">
         <f>'PRIMER PARCIAL'!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>RODRIGUEZ DE LUNA ELIAM</v>
+      </c>
+      <c r="C29" s="50">
+        <v>8.5</v>
+      </c>
       <c r="D29" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="53"/>
+        <v>4.25</v>
+      </c>
+      <c r="E29" s="53">
+        <v>0</v>
+      </c>
       <c r="F29" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="55">
+        <v>8</v>
+      </c>
       <c r="H29" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="53"/>
+        <v>1.6</v>
+      </c>
+      <c r="I29" s="53">
+        <v>0</v>
+      </c>
       <c r="J29" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="L29" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="M29" s="111" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="38">
         <v>22</v>
       </c>
-      <c r="B30" s="79">
+      <c r="B30" s="79" t="str">
         <f>'PRIMER PARCIAL'!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="50"/>
+        <v>RODRIGUEZ LOERA MARIA REGINA</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0</v>
+      </c>
       <c r="D30" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
       <c r="F30" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G30" s="55"/>
+      <c r="G30" s="55">
+        <v>0</v>
+      </c>
       <c r="H30" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="53"/>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
       <c r="J30" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4701,146 +5736,186 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38">
         <v>23</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="79" t="str">
         <f>'PRIMER PARCIAL'!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="50"/>
+        <v xml:space="preserve">ROMERO ALEMAN BELINDA BERENICE </v>
+      </c>
+      <c r="C31" s="50">
+        <v>6</v>
+      </c>
       <c r="D31" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="53">
+        <v>0</v>
+      </c>
       <c r="F31" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="55">
+        <v>5</v>
+      </c>
       <c r="H31" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="53"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="53">
+        <v>0</v>
+      </c>
       <c r="J31" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="M31" s="111" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38">
         <v>24</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="79" t="str">
         <f>'PRIMER PARCIAL'!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="50"/>
+        <v>SOTO JIMENEZ DIEGO ISAAC</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0</v>
+      </c>
       <c r="D32" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E32" s="53"/>
+      <c r="E32" s="53">
+        <v>0</v>
+      </c>
       <c r="F32" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G32" s="55"/>
+      <c r="G32" s="55">
+        <v>1</v>
+      </c>
       <c r="H32" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="53"/>
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="53">
+        <v>0</v>
+      </c>
       <c r="J32" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L32" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38">
         <v>25</v>
       </c>
-      <c r="B33" s="79">
+      <c r="B33" s="79" t="str">
         <f>'PRIMER PARCIAL'!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="50"/>
+        <v>TAPIA ROJERO DENISSE GUADALUPE</v>
+      </c>
+      <c r="C33" s="50">
+        <v>9</v>
+      </c>
       <c r="D33" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="53"/>
+        <v>4.5</v>
+      </c>
+      <c r="E33" s="53">
+        <v>10</v>
+      </c>
       <c r="F33" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="55"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="55">
+        <v>6</v>
+      </c>
       <c r="H33" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="53"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I33" s="53">
+        <v>0</v>
+      </c>
       <c r="J33" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L33" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="M33" s="111" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="38">
         <v>26</v>
       </c>
-      <c r="B34" s="79">
+      <c r="B34" s="79" t="str">
         <f>'PRIMER PARCIAL'!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="50"/>
+        <v>VAZQUEZ LOPEZ ADRIAN</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0</v>
+      </c>
       <c r="D34" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="53">
+        <v>0</v>
+      </c>
       <c r="F34" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="55">
+        <v>0</v>
+      </c>
       <c r="H34" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I34" s="53"/>
+      <c r="I34" s="53">
+        <v>0</v>
+      </c>
       <c r="J34" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4850,73 +5925,93 @@
         <v>0</v>
       </c>
       <c r="L34" s="67">
-        <f t="shared" ref="L34:L37" si="7">J34+H34+F34+D34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="16"/>
+        <f t="shared" ref="L34:L38" si="7">J34+H34+F34+D34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="111" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38">
         <v>27</v>
       </c>
-      <c r="B35" s="79">
+      <c r="B35" s="79" t="str">
         <f>'PRIMER PARCIAL'!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="50"/>
+        <v>VITAL FLORES JOSE EDUARDO</v>
+      </c>
+      <c r="C35" s="50">
+        <v>9.5</v>
+      </c>
       <c r="D35" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="53"/>
+        <v>4.75</v>
+      </c>
+      <c r="E35" s="53">
+        <v>2.5</v>
+      </c>
       <c r="F35" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="55">
+        <v>6.26</v>
+      </c>
       <c r="H35" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="53"/>
+        <v>1.252</v>
+      </c>
+      <c r="I35" s="53">
+        <v>0</v>
+      </c>
       <c r="J35" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.5019999999999998</v>
       </c>
       <c r="L35" s="67">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6.5019999999999998</v>
+      </c>
+      <c r="M35" s="112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38">
         <v>28</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="79" t="str">
         <f>'PRIMER PARCIAL'!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="50"/>
+        <v xml:space="preserve">JIMENEZ PADILLA MARIA GUADALUPE </v>
+      </c>
+      <c r="C36" s="50">
+        <v>0</v>
+      </c>
       <c r="D36" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="53">
+        <v>0</v>
+      </c>
       <c r="F36" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G36" s="55"/>
+      <c r="G36" s="55">
+        <v>0</v>
+      </c>
       <c r="H36" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="53"/>
+      <c r="I36" s="53">
+        <v>0</v>
+      </c>
       <c r="J36" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4929,49 +6024,142 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="14">
-        <f>AVERAGE(K9:K36)</f>
-        <v>0</v>
+      <c r="M36" s="111" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="85">
+        <v>29</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="92">
+        <v>0</v>
+      </c>
+      <c r="D37" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0</v>
+      </c>
+      <c r="F37" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="53">
+        <v>6.2</v>
+      </c>
+      <c r="H37" s="96">
+        <f t="shared" si="0"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="I37" s="53">
+        <v>0</v>
+      </c>
+      <c r="J37" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2400000000000002</v>
       </c>
       <c r="L37" s="67">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J39" s="102">
-        <f t="shared" ref="J39" si="8">$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85">
+        <v>30</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="94">
+        <v>9.5</v>
+      </c>
+      <c r="D38" s="86">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="E38" s="110">
+        <v>0</v>
+      </c>
+      <c r="F38" s="86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="110">
+        <v>4</v>
+      </c>
+      <c r="H38" s="86">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="110">
+        <v>5</v>
+      </c>
+      <c r="J38" s="86">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="6"/>
+        <v>6.05</v>
+      </c>
+      <c r="L38" s="87">
+        <f t="shared" si="7"/>
+        <v>6.05</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="14">
+        <f>AVERAGE(K9:K36)</f>
+        <v>3.5864999999999996</v>
+      </c>
+      <c r="L39" s="113"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="131" t="str">
+        <f t="shared" ref="J41" si="8">$C$5</f>
+        <v>ADRIAN CHAVEZ OLIVARES</v>
+      </c>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+    </row>
     <row r="42" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -4983,7 +6171,12 @@
     <mergeCell ref="G5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L36">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:L38">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4995,15 +6188,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5015,42 +6208,42 @@
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
+    <col min="13" max="13" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -5070,20 +6263,20 @@
       <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="138" t="str">
         <f>'PRIMER PARCIAL'!C4:F4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+        <v>INFORMATICA I</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
       <c r="L4" s="25"/>
       <c r="M4" s="62"/>
     </row>
@@ -5092,20 +6285,20 @@
       <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="138" t="str">
         <f>'PRIMER PARCIAL'!C5:F5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+        <v>ADRIAN CHAVEZ OLIVARES</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="62"/>
       <c r="M5" s="66"/>
     </row>
@@ -5125,41 +6318,47 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="110" t="s">
+      <c r="A7" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="69"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="69"/>
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="71">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="69"/>
       <c r="J7" s="71">
         <v>0</v>
       </c>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="126" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="75" t="s">
         <v>10</v>
       </c>
@@ -5184,9 +6383,9 @@
       <c r="J8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="98"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="127"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
@@ -5194,22 +6393,28 @@
       </c>
       <c r="B9" s="79" t="str">
         <f>'PRIMER PARCIAL'!B9</f>
-        <v>ARIAS DELGADILLO FRANCISCO JAVIER</v>
-      </c>
-      <c r="C9" s="49"/>
+        <v>ABUNDES MEDINA FATIMA DEL ROCIO</v>
+      </c>
+      <c r="C9" s="49">
+        <v>9</v>
+      </c>
       <c r="D9" s="47">
         <f t="shared" ref="D9:D29" si="0">C9*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="56"/>
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="56">
+        <v>10</v>
+      </c>
       <c r="F9" s="57">
         <f t="shared" ref="F9:F29" si="1">E9*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="54">
+        <v>6.666666666666667</v>
+      </c>
       <c r="H9" s="47">
         <f t="shared" ref="H9:H29" si="2">G9*H$7</f>
-        <v>0</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="48">
@@ -5218,13 +6423,15 @@
       </c>
       <c r="K9" s="15">
         <f>SUM(J9,H9,F9,D9)</f>
-        <v>0</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="L9" s="67">
         <f>IF(K9&gt;6,_xlfn.NUMBERVALUE(FIXED(K9,0)),ROUNDDOWN(K9,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
@@ -5232,19 +6439,25 @@
       </c>
       <c r="B10" s="79" t="str">
         <f>'PRIMER PARCIAL'!B10</f>
-        <v>BASCHUK RAMIREZ CARLOS GERARDO</v>
-      </c>
-      <c r="C10" s="50"/>
+        <v>ARELLANO GONZALEZ MARINA</v>
+      </c>
+      <c r="C10" s="50">
+        <v>6.8</v>
+      </c>
       <c r="D10" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="53"/>
+        <v>3.4</v>
+      </c>
+      <c r="E10" s="53">
+        <v>10</v>
+      </c>
       <c r="F10" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="54">
+        <v>0</v>
+      </c>
       <c r="H10" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5256,13 +6469,15 @@
       </c>
       <c r="K10" s="15">
         <f t="shared" ref="K10:K23" si="4">SUM(J10,H10,F10,D10)</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L10" s="67">
         <f t="shared" ref="L10:L36" si="5">IF(K10&gt;6,_xlfn.NUMBERVALUE(FIXED(K10,0)),ROUNDDOWN(K10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
@@ -5270,19 +6485,25 @@
       </c>
       <c r="B11" s="79" t="str">
         <f>'PRIMER PARCIAL'!B11</f>
-        <v>CALVILLO VAZQUEZ GUILLERMO EMMANUEL</v>
-      </c>
-      <c r="C11" s="50"/>
+        <v xml:space="preserve">BRAND CUELLAR ADRIAN ALEX </v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
       <c r="D11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
       <c r="F11" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="54">
+        <v>0</v>
+      </c>
       <c r="H11" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5300,7 +6521,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39">
@@ -5308,22 +6531,28 @@
       </c>
       <c r="B12" s="79" t="str">
         <f>'PRIMER PARCIAL'!B12</f>
-        <v>CERVANTES ZAMORA CARLOS ALONSO</v>
-      </c>
-      <c r="C12" s="50"/>
+        <v xml:space="preserve">CANSINO RAMIREZ RUBEN </v>
+      </c>
+      <c r="C12" s="50">
+        <v>6</v>
+      </c>
       <c r="D12" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="53">
+        <v>9</v>
+      </c>
       <c r="F12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="54"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="G12" s="54">
+        <v>5</v>
+      </c>
       <c r="H12" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="48">
@@ -5332,11 +6561,11 @@
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="L12" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="10"/>
     </row>
@@ -5346,19 +6575,25 @@
       </c>
       <c r="B13" s="79" t="str">
         <f>'PRIMER PARCIAL'!B13</f>
-        <v>ESPINO BALLIN SERGIO EMILIO</v>
-      </c>
-      <c r="C13" s="50"/>
+        <v>DIAZ RUVALCABA OSCAR OSIEL</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
       <c r="D13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="53">
+        <v>1</v>
+      </c>
       <c r="F13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="54"/>
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="54">
+        <v>0</v>
+      </c>
       <c r="H13" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5370,13 +6605,15 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L13" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
@@ -5384,19 +6621,25 @@
       </c>
       <c r="B14" s="79" t="str">
         <f>'PRIMER PARCIAL'!B14</f>
-        <v>GALLEGOS NAJERA DIEGO ALEXANDER</v>
-      </c>
-      <c r="C14" s="51"/>
+        <v>ESTRADA DE LIRA EVERARDO</v>
+      </c>
+      <c r="C14" s="51">
+        <v>0</v>
+      </c>
       <c r="D14" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
       <c r="F14" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="54">
+        <v>0</v>
+      </c>
       <c r="H14" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5414,7 +6657,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
@@ -5422,19 +6667,25 @@
       </c>
       <c r="B15" s="79" t="str">
         <f>'PRIMER PARCIAL'!B15</f>
-        <v>GONZALEZ ARELLANO KARLA FERNANDA</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>FLORES VIRAMONTES LUIS FELIPE</v>
+      </c>
+      <c r="C15" s="50">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="53">
+        <v>4</v>
+      </c>
       <c r="F15" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="54"/>
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="54">
+        <v>0</v>
+      </c>
       <c r="H15" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5446,13 +6697,15 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L15" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
@@ -5462,17 +6715,23 @@
         <f>'PRIMER PARCIAL'!B16</f>
         <v>GUERRERO SALAZAR NOE CRUZ</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="50">
+        <v>0</v>
+      </c>
       <c r="D16" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="53">
+        <v>3.2</v>
+      </c>
       <c r="F16" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="54"/>
+        <v>0.96</v>
+      </c>
+      <c r="G16" s="54">
+        <v>0</v>
+      </c>
       <c r="H16" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5484,13 +6743,15 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="L16" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
@@ -5498,22 +6759,28 @@
       </c>
       <c r="B17" s="79" t="str">
         <f>'PRIMER PARCIAL'!B17</f>
-        <v>LEMUS LOPEZ ANA PAULA</v>
-      </c>
-      <c r="C17" s="50"/>
+        <v>LANDI THIAGO</v>
+      </c>
+      <c r="C17" s="50">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D17" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="53"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E17" s="53">
+        <v>10</v>
+      </c>
       <c r="F17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="G17" s="54">
+        <v>6.7</v>
+      </c>
       <c r="H17" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="48">
@@ -5522,11 +6789,11 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="L17" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17" s="10"/>
     </row>
@@ -5536,19 +6803,25 @@
       </c>
       <c r="B18" s="79" t="str">
         <f>'PRIMER PARCIAL'!B18</f>
-        <v>LOPEZ MARIN DANIEL DE JESUS</v>
-      </c>
-      <c r="C18" s="50"/>
+        <v>LOPEZ GUTIERREZ JESUS ANTONIO</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0</v>
+      </c>
       <c r="D18" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="53">
+        <v>2</v>
+      </c>
       <c r="F18" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="54"/>
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0</v>
+      </c>
       <c r="H18" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5560,13 +6833,15 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L18" s="67">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38">
@@ -5574,19 +6849,25 @@
       </c>
       <c r="B19" s="79" t="str">
         <f>'PRIMER PARCIAL'!B19</f>
-        <v>SANDOVAL FLORES JOSE ANTONIO</v>
-      </c>
-      <c r="C19" s="50"/>
+        <v>LUIS CUELLAR ANDREA NICOLE</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
       <c r="D19" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="53"/>
+      <c r="E19" s="53">
+        <v>6</v>
+      </c>
       <c r="F19" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="54"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0</v>
+      </c>
       <c r="H19" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5598,13 +6879,15 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="L19" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
@@ -5612,19 +6895,25 @@
       </c>
       <c r="B20" s="79" t="str">
         <f>'PRIMER PARCIAL'!B20</f>
-        <v>SANTANA VILLALOBOS OBED SALOMON</v>
-      </c>
-      <c r="C20" s="50"/>
+        <v>LUNA SANCHEZ ARELY PAOLA</v>
+      </c>
+      <c r="C20" s="50">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D20" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="53"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E20" s="53">
+        <v>10</v>
+      </c>
       <c r="F20" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
       <c r="H20" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5636,13 +6925,15 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L20" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38">
@@ -5650,22 +6941,28 @@
       </c>
       <c r="B21" s="79" t="str">
         <f>'PRIMER PARCIAL'!B21</f>
-        <v>SILVA MARTINEZ RODRIGO FABIAN</v>
-      </c>
-      <c r="C21" s="50"/>
+        <v>MARTINEZ CASTAÑON XIMENA ITATI</v>
+      </c>
+      <c r="C21" s="50">
+        <v>9.4</v>
+      </c>
       <c r="D21" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="53"/>
+        <v>4.7</v>
+      </c>
+      <c r="E21" s="53">
+        <v>10</v>
+      </c>
       <c r="F21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="54"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="54">
+        <v>6.666666666666667</v>
+      </c>
       <c r="H21" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="48">
@@ -5674,13 +6971,15 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.033333333333335</v>
       </c>
       <c r="L21" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
@@ -5688,19 +6987,25 @@
       </c>
       <c r="B22" s="79" t="str">
         <f>'PRIMER PARCIAL'!B22</f>
-        <v>VILLASANA ROCHE DAVID SANTIAGO</v>
-      </c>
-      <c r="C22" s="50"/>
+        <v xml:space="preserve">MEDINA SERENO MARIA CLARA </v>
+      </c>
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
       <c r="D22" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
       <c r="F22" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="54">
+        <v>0</v>
+      </c>
       <c r="H22" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5718,27 +7023,35 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
         <v>15</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="79" t="str">
         <f>'PRIMER PARCIAL'!B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="50"/>
+        <v>MOLINA MARTINEZ LUIS MAURICIO</v>
+      </c>
+      <c r="C23" s="50">
+        <v>7.8</v>
+      </c>
       <c r="D23" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="53"/>
+        <v>3.9</v>
+      </c>
+      <c r="E23" s="53">
+        <v>5.2</v>
+      </c>
       <c r="F23" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="54"/>
+        <v>1.56</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0</v>
+      </c>
       <c r="H23" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5750,33 +7063,41 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="L23" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>16</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="79" t="str">
         <f>'PRIMER PARCIAL'!B24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="50"/>
+        <v>NUÑEZ GALLEGOS FRANCISCO JAVIER</v>
+      </c>
+      <c r="C24" s="50">
+        <v>10</v>
+      </c>
       <c r="D24" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="E24" s="53">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="F24" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="54"/>
+        <v>2.76</v>
+      </c>
+      <c r="G24" s="54">
+        <v>0</v>
+      </c>
       <c r="H24" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5787,34 +7108,42 @@
         <v>0</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" ref="K24:K36" si="6">SUM(J24,H24,F24,D24)</f>
-        <v>0</v>
+        <f t="shared" ref="K24:K38" si="6">SUM(J24,H24,F24,D24)</f>
+        <v>7.76</v>
       </c>
       <c r="L24" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38">
         <v>17</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="79" t="str">
         <f>'PRIMER PARCIAL'!B25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v xml:space="preserve">ORTIZ HERNANDEZ SANTIAGO </v>
+      </c>
+      <c r="C25" s="50">
+        <v>0</v>
+      </c>
       <c r="D25" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="53">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="F25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="54"/>
+        <v>1.38</v>
+      </c>
+      <c r="G25" s="54">
+        <v>0</v>
+      </c>
       <c r="H25" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5826,33 +7155,41 @@
       </c>
       <c r="K25" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L25" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>18</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="79" t="str">
         <f>'PRIMER PARCIAL'!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="50"/>
+        <v>OSORIO MORFIN MARIANA ELIZABETH</v>
+      </c>
+      <c r="C26" s="50">
+        <v>7.4</v>
+      </c>
       <c r="D26" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="53"/>
+        <v>3.7</v>
+      </c>
+      <c r="E26" s="53">
+        <v>8</v>
+      </c>
       <c r="F26" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
       <c r="H26" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5864,33 +7201,41 @@
       </c>
       <c r="K26" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="L26" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38">
         <v>19</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="79" t="str">
         <f>'PRIMER PARCIAL'!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="50"/>
+        <v xml:space="preserve">PADILLA HERNANDEZ JULIO AGUSTIN </v>
+      </c>
+      <c r="C27" s="50">
+        <v>6.6</v>
+      </c>
       <c r="D27" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="53"/>
+        <v>3.3</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
       <c r="F27" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
       <c r="H27" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5902,33 +7247,41 @@
       </c>
       <c r="K27" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L27" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39">
         <v>20</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="79" t="str">
         <f>'PRIMER PARCIAL'!B28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="50"/>
+        <v>RAMIREZ CISNEROS FERNANDO</v>
+      </c>
+      <c r="C28" s="50">
+        <v>0</v>
+      </c>
       <c r="D28" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
       <c r="F28" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="55">
+        <v>0</v>
+      </c>
       <c r="H28" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5946,27 +7299,35 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38">
         <v>21</v>
       </c>
-      <c r="B29" s="79">
+      <c r="B29" s="79" t="str">
         <f>'PRIMER PARCIAL'!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="50"/>
+        <v>RODRIGUEZ DE LUNA ELIAM</v>
+      </c>
+      <c r="C29" s="50">
+        <v>8.6</v>
+      </c>
       <c r="D29" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="53"/>
+        <v>4.3</v>
+      </c>
+      <c r="E29" s="53">
+        <v>10</v>
+      </c>
       <c r="F29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="55"/>
+        <v>3</v>
+      </c>
+      <c r="G29" s="55">
+        <v>0</v>
+      </c>
       <c r="H29" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5978,74 +7339,90 @@
       </c>
       <c r="K29" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L29" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39">
         <v>22</v>
       </c>
-      <c r="B30" s="79">
+      <c r="B30" s="79" t="str">
         <f>'PRIMER PARCIAL'!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="50"/>
+        <v>RODRIGUEZ LOERA MARIA REGINA</v>
+      </c>
+      <c r="C30" s="50">
+        <v>7</v>
+      </c>
       <c r="D30" s="47">
-        <f t="shared" ref="D30:D36" si="7">C30*D$7</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="53"/>
+        <f t="shared" ref="D30:D38" si="7">C30*D$7</f>
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="53">
+        <v>8</v>
+      </c>
       <c r="F30" s="48">
-        <f t="shared" ref="F30:F36" si="8">E30*F$7</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="55"/>
+        <f t="shared" ref="F30:F38" si="8">E30*F$7</f>
+        <v>2.4</v>
+      </c>
+      <c r="G30" s="55">
+        <v>6.666666666666667</v>
+      </c>
       <c r="H30" s="47">
-        <f t="shared" ref="H30:H36" si="9">G30*H$7</f>
-        <v>0</v>
+        <f t="shared" ref="H30:H38" si="9">G30*H$7</f>
+        <v>1.3333333333333335</v>
       </c>
       <c r="I30" s="53"/>
       <c r="J30" s="48">
-        <f t="shared" ref="J30:J36" si="10">I30*J$7</f>
+        <f t="shared" ref="J30:J38" si="10">I30*J$7</f>
         <v>0</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.2333333333333334</v>
       </c>
       <c r="L30" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="38">
         <v>23</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="79" t="str">
         <f>'PRIMER PARCIAL'!B31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="50"/>
+        <v xml:space="preserve">ROMERO ALEMAN BELINDA BERENICE </v>
+      </c>
+      <c r="C31" s="50">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D31" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="53"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E31" s="53">
+        <v>10</v>
+      </c>
       <c r="F31" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="55"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="55">
+        <v>6.666666666666667</v>
+      </c>
       <c r="H31" s="47">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="48">
@@ -6054,33 +7431,41 @@
       </c>
       <c r="K31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.9333333333333336</v>
       </c>
       <c r="L31" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38">
         <v>24</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="79" t="str">
         <f>'PRIMER PARCIAL'!B32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="50"/>
+        <v>SOTO JIMENEZ DIEGO ISAAC</v>
+      </c>
+      <c r="C32" s="50">
+        <v>2.6</v>
+      </c>
       <c r="D32" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="53"/>
+        <v>1.3</v>
+      </c>
+      <c r="E32" s="53">
+        <v>6</v>
+      </c>
       <c r="F32" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="55"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G32" s="55">
+        <v>0</v>
+      </c>
       <c r="H32" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6092,33 +7477,41 @@
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.0999999999999996</v>
       </c>
       <c r="L32" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39">
         <v>25</v>
       </c>
-      <c r="B33" s="79">
+      <c r="B33" s="79" t="str">
         <f>'PRIMER PARCIAL'!B33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="50"/>
+        <v>TAPIA ROJERO DENISSE GUADALUPE</v>
+      </c>
+      <c r="C33" s="50">
+        <v>9.6</v>
+      </c>
       <c r="D33" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="53"/>
+        <v>4.8</v>
+      </c>
+      <c r="E33" s="53">
+        <v>4</v>
+      </c>
       <c r="F33" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="55"/>
+        <v>1.2</v>
+      </c>
+      <c r="G33" s="55">
+        <v>0</v>
+      </c>
       <c r="H33" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6130,33 +7523,41 @@
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L33" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>26</v>
       </c>
-      <c r="B34" s="79">
+      <c r="B34" s="79" t="str">
         <f>'PRIMER PARCIAL'!B34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="50"/>
+        <v>VAZQUEZ LOPEZ ADRIAN</v>
+      </c>
+      <c r="C34" s="50">
+        <v>0</v>
+      </c>
       <c r="D34" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="53">
+        <v>0</v>
+      </c>
       <c r="F34" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="55">
+        <v>0</v>
+      </c>
       <c r="H34" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6174,30 +7575,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38">
         <v>27</v>
       </c>
-      <c r="B35" s="79">
+      <c r="B35" s="79" t="str">
         <f>'PRIMER PARCIAL'!B35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="50"/>
+        <v>VITAL FLORES JOSE EDUARDO</v>
+      </c>
+      <c r="C35" s="50">
+        <v>7.4</v>
+      </c>
       <c r="D35" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="53"/>
+        <v>3.7</v>
+      </c>
+      <c r="E35" s="53">
+        <v>8</v>
+      </c>
       <c r="F35" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="55"/>
+        <v>2.4</v>
+      </c>
+      <c r="G35" s="55">
+        <v>6</v>
+      </c>
       <c r="H35" s="47">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="48">
@@ -6206,33 +7615,41 @@
       </c>
       <c r="K35" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="L35" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="38">
         <v>28</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="79" t="str">
         <f>'PRIMER PARCIAL'!B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="50"/>
+        <v xml:space="preserve">JIMENEZ PADILLA MARIA GUADALUPE </v>
+      </c>
+      <c r="C36" s="50">
+        <v>4.8</v>
+      </c>
       <c r="D36" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="53"/>
+        <v>2.4</v>
+      </c>
+      <c r="E36" s="53">
+        <v>4</v>
+      </c>
       <c r="F36" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="55"/>
+        <v>1.2</v>
+      </c>
+      <c r="G36" s="55">
+        <v>0</v>
+      </c>
       <c r="H36" s="47">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6244,50 +7661,139 @@
       </c>
       <c r="K36" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="L36" s="67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="85">
+        <v>29</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="92">
+        <v>0</v>
+      </c>
+      <c r="D37" s="96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0</v>
+      </c>
+      <c r="F37" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="53">
+        <v>0</v>
+      </c>
+      <c r="H37" s="96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="53"/>
+      <c r="J37" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="67">
+        <f t="shared" ref="L37:L38" si="11">J37+H37+F37+D37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85">
+        <v>30</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="94">
+        <v>7</v>
+      </c>
+      <c r="D38" s="86">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="110">
         <v>2</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="14">
+      <c r="F38" s="86">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="G38" s="110">
+        <v>0</v>
+      </c>
+      <c r="H38" s="86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="110"/>
+      <c r="J38" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="6"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L38" s="87">
+        <f t="shared" si="11"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="14">
         <f>AVERAGE(K9:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="67">
-        <f t="shared" ref="L37" si="11">J37+H37+F37+D37</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
+        <v>4.2797619047619042</v>
+      </c>
+      <c r="L39" s="114"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+    </row>
     <row r="42" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -6301,6 +7807,11 @@
     <mergeCell ref="M7:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L36">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:L38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
@@ -6313,20 +7824,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="5" customWidth="1"/>
     <col min="3" max="5" width="17.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="5"/>
@@ -6335,14 +7847,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="A1" s="161" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
       <c r="AK1" s="7"/>
       <c r="AM1" s="6"/>
     </row>
@@ -6371,12 +7883,16 @@
       <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="76"/>
+      <c r="C3" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>61</v>
+      </c>
       <c r="AK3" s="7"/>
       <c r="AM3" s="6"/>
     </row>
@@ -6385,12 +7901,16 @@
       <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
+      <c r="C4" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="133"/>
       <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="76" t="s">
+        <v>60</v>
+      </c>
       <c r="AK4" s="7"/>
       <c r="AM4" s="6"/>
     </row>
@@ -6403,42 +7923,42 @@
       <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="144" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="111" t="s">
+      <c r="F6" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="157" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
-      <c r="B7" s="121" t="s">
+      <c r="A7" s="141"/>
+      <c r="B7" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="129"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="114"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="158"/>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -6446,31 +7966,31 @@
       </c>
       <c r="B8" s="80" t="str">
         <f>'PRIMER PARCIAL'!B9</f>
-        <v>ARIAS DELGADILLO FRANCISCO JAVIER</v>
+        <v>ABUNDES MEDINA FATIMA DEL ROCIO</v>
       </c>
       <c r="C8" s="77">
         <f>'PRIMER PARCIAL'!L9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="77">
         <f>'SEGUNDO PARCIAL'!L9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="78">
         <f>'TERCER PARCIAL '!L9</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8" s="37">
         <f>AVERAGE(C8,D8,E8)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="34">
         <f>AVERAGE(C8,D8)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I8" s="58">
         <f>SUM(C8:D8)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,31 +7999,31 @@
       </c>
       <c r="B9" s="80" t="str">
         <f>'PRIMER PARCIAL'!B10</f>
-        <v>BASCHUK RAMIREZ CARLOS GERARDO</v>
+        <v>ARELLANO GONZALEZ MARINA</v>
       </c>
       <c r="C9" s="77">
         <f>'PRIMER PARCIAL'!L10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="77">
         <f>'SEGUNDO PARCIAL'!L10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="78">
         <f>'TERCER PARCIAL '!L10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="37">
-        <f t="shared" ref="F9:F35" si="0">AVERAGE(C9,D9,E9)</f>
-        <v>0</v>
+        <f t="shared" ref="F9:F37" si="0">AVERAGE(C9,D9,E9)</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="H9" s="34">
         <f t="shared" ref="H9:H35" si="1">AVERAGE(C9,D9)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="58">
         <f t="shared" ref="I9:I35" si="2">SUM(C9:D9)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,15 +8032,15 @@
       </c>
       <c r="B10" s="80" t="str">
         <f>'PRIMER PARCIAL'!B11</f>
-        <v>CALVILLO VAZQUEZ GUILLERMO EMMANUEL</v>
+        <v xml:space="preserve">BRAND CUELLAR ADRIAN ALEX </v>
       </c>
       <c r="C10" s="77">
         <f>'PRIMER PARCIAL'!L11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="77">
         <f>'SEGUNDO PARCIAL'!L11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="78">
         <f>'TERCER PARCIAL '!L11</f>
@@ -6528,15 +8048,15 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H10" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I10" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6545,11 +8065,11 @@
       </c>
       <c r="B11" s="80" t="str">
         <f>'PRIMER PARCIAL'!B12</f>
-        <v>CERVANTES ZAMORA CARLOS ALONSO</v>
+        <v xml:space="preserve">CANSINO RAMIREZ RUBEN </v>
       </c>
       <c r="C11" s="77">
         <f>'PRIMER PARCIAL'!L12</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" s="77">
         <f>'SEGUNDO PARCIAL'!L12</f>
@@ -6557,19 +8077,19 @@
       </c>
       <c r="E11" s="78">
         <f>'TERCER PARCIAL '!L12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6578,15 +8098,15 @@
       </c>
       <c r="B12" s="80" t="str">
         <f>'PRIMER PARCIAL'!B13</f>
-        <v>ESPINO BALLIN SERGIO EMILIO</v>
+        <v>DIAZ RUVALCABA OSCAR OSIEL</v>
       </c>
       <c r="C12" s="77">
         <f>'PRIMER PARCIAL'!L13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="77">
         <f>'SEGUNDO PARCIAL'!L13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="78">
         <f>'TERCER PARCIAL '!L13</f>
@@ -6594,15 +8114,15 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6611,11 +8131,11 @@
       </c>
       <c r="B13" s="80" t="str">
         <f>'PRIMER PARCIAL'!B14</f>
-        <v>GALLEGOS NAJERA DIEGO ALEXANDER</v>
+        <v>ESTRADA DE LIRA EVERARDO</v>
       </c>
       <c r="C13" s="77">
         <f>'PRIMER PARCIAL'!L14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="77">
         <f>'SEGUNDO PARCIAL'!L14</f>
@@ -6627,15 +8147,15 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H13" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6644,31 +8164,31 @@
       </c>
       <c r="B14" s="80" t="str">
         <f>'PRIMER PARCIAL'!B15</f>
-        <v>GONZALEZ ARELLANO KARLA FERNANDA</v>
+        <v>FLORES VIRAMONTES LUIS FELIPE</v>
       </c>
       <c r="C14" s="77">
         <f>'PRIMER PARCIAL'!L15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="77">
         <f>'SEGUNDO PARCIAL'!L15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="78">
         <f>'TERCER PARCIAL '!L15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H14" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I14" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,11 +8201,11 @@
       </c>
       <c r="C15" s="77">
         <f>'PRIMER PARCIAL'!L16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="77">
         <f>'SEGUNDO PARCIAL'!L16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="78">
         <f>'TERCER PARCIAL '!L16</f>
@@ -6693,15 +8213,15 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,31 +8230,30 @@
       </c>
       <c r="B16" s="80" t="str">
         <f>'PRIMER PARCIAL'!B17</f>
-        <v>LEMUS LOPEZ ANA PAULA</v>
+        <v>LANDI THIAGO</v>
       </c>
       <c r="C16" s="77">
-        <f>'PRIMER PARCIAL'!L17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="77">
         <f>'SEGUNDO PARCIAL'!L17</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="78">
         <f>'TERCER PARCIAL '!L17</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="H16" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I16" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6743,15 +8262,15 @@
       </c>
       <c r="B17" s="80" t="str">
         <f>'PRIMER PARCIAL'!B18</f>
-        <v>LOPEZ MARIN DANIEL DE JESUS</v>
+        <v>LOPEZ GUTIERREZ JESUS ANTONIO</v>
       </c>
       <c r="C17" s="77">
         <f>'PRIMER PARCIAL'!L18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="77">
         <f>'SEGUNDO PARCIAL'!L18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" s="78">
         <f>'TERCER PARCIAL '!L18</f>
@@ -6759,15 +8278,15 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,11 +8295,11 @@
       </c>
       <c r="B18" s="80" t="str">
         <f>'PRIMER PARCIAL'!B19</f>
-        <v>SANDOVAL FLORES JOSE ANTONIO</v>
+        <v>LUIS CUELLAR ANDREA NICOLE</v>
       </c>
       <c r="C18" s="77">
         <f>'PRIMER PARCIAL'!L19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="77">
         <f>'SEGUNDO PARCIAL'!L19</f>
@@ -6788,19 +8307,19 @@
       </c>
       <c r="E18" s="78">
         <f>'TERCER PARCIAL '!L19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H18" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,31 +8328,31 @@
       </c>
       <c r="B19" s="80" t="str">
         <f>'PRIMER PARCIAL'!B20</f>
-        <v>SANTANA VILLALOBOS OBED SALOMON</v>
+        <v>LUNA SANCHEZ ARELY PAOLA</v>
       </c>
       <c r="C19" s="77">
         <f>'PRIMER PARCIAL'!L20</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" s="77">
         <f>'SEGUNDO PARCIAL'!L20</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" s="78">
         <f>'TERCER PARCIAL '!L20</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H19" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I19" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6842,31 +8361,31 @@
       </c>
       <c r="B20" s="80" t="str">
         <f>'PRIMER PARCIAL'!B21</f>
-        <v>SILVA MARTINEZ RODRIGO FABIAN</v>
+        <v>MARTINEZ CASTAÑON XIMENA ITATI</v>
       </c>
       <c r="C20" s="77">
         <f>'PRIMER PARCIAL'!L21</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20" s="77">
         <f>'SEGUNDO PARCIAL'!L21</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="78">
         <f>'TERCER PARCIAL '!L21</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H20" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I20" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6875,15 +8394,15 @@
       </c>
       <c r="B21" s="80" t="str">
         <f>'PRIMER PARCIAL'!B22</f>
-        <v>VILLASANA ROCHE DAVID SANTIAGO</v>
+        <v xml:space="preserve">MEDINA SERENO MARIA CLARA </v>
       </c>
       <c r="C21" s="77">
         <f>'PRIMER PARCIAL'!L22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" s="77">
         <f>'SEGUNDO PARCIAL'!L22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21" s="78">
         <f>'TERCER PARCIAL '!L22</f>
@@ -6891,94 +8410,93 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I21" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>15</v>
       </c>
-      <c r="B22" s="80">
+      <c r="B22" s="80" t="str">
         <f>'PRIMER PARCIAL'!B23</f>
-        <v>0</v>
+        <v>MOLINA MARTINEZ LUIS MAURICIO</v>
       </c>
       <c r="C22" s="77">
         <f>'PRIMER PARCIAL'!L23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D22" s="77">
         <f>'SEGUNDO PARCIAL'!L23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="78">
         <f>'TERCER PARCIAL '!L23</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H22" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>16</v>
       </c>
-      <c r="B23" s="80">
+      <c r="B23" s="80" t="str">
         <f>'PRIMER PARCIAL'!B24</f>
-        <v>0</v>
+        <v>NUÑEZ GALLEGOS FRANCISCO JAVIER</v>
       </c>
       <c r="C23" s="77">
-        <f>'PRIMER PARCIAL'!L24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23" s="77">
         <f>'SEGUNDO PARCIAL'!L24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="78">
         <f>'TERCER PARCIAL '!L24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="H23" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>17</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="36" t="str">
         <f>'PRIMER PARCIAL'!B25</f>
-        <v>0</v>
+        <v xml:space="preserve">ORTIZ HERNANDEZ SANTIAGO </v>
       </c>
       <c r="C24" s="77">
         <f>'PRIMER PARCIAL'!L25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="77">
         <f>'SEGUNDO PARCIAL'!L25</f>
@@ -6986,65 +8504,64 @@
       </c>
       <c r="E24" s="78">
         <f>'TERCER PARCIAL '!L25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I24" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>18</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="36" t="str">
         <f>'PRIMER PARCIAL'!B26</f>
-        <v>0</v>
+        <v>OSORIO MORFIN MARIANA ELIZABETH</v>
       </c>
       <c r="C25" s="77">
-        <f>'PRIMER PARCIAL'!L26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="77">
         <f>'SEGUNDO PARCIAL'!L26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="78">
         <f>'TERCER PARCIAL '!L26</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H25" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>19</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="36" t="str">
         <f>'PRIMER PARCIAL'!B27</f>
-        <v>0</v>
+        <v xml:space="preserve">PADILLA HERNANDEZ JULIO AGUSTIN </v>
       </c>
       <c r="C26" s="77">
         <f>'PRIMER PARCIAL'!L27</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D26" s="77">
         <f>'SEGUNDO PARCIAL'!L27</f>
@@ -7052,32 +8569,32 @@
       </c>
       <c r="E26" s="78">
         <f>'TERCER PARCIAL '!L27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H26" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>20</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="36" t="str">
         <f>'PRIMER PARCIAL'!B28</f>
-        <v>0</v>
+        <v>RAMIREZ CISNEROS FERNANDO</v>
       </c>
       <c r="C27" s="77">
         <f>'PRIMER PARCIAL'!L28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="77">
         <f>'SEGUNDO PARCIAL'!L28</f>
@@ -7089,127 +8606,125 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H27" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I27" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>21</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="36" t="str">
         <f>'PRIMER PARCIAL'!B29</f>
-        <v>0</v>
+        <v>RODRIGUEZ DE LUNA ELIAM</v>
       </c>
       <c r="C28" s="77">
         <f>'PRIMER PARCIAL'!L29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="77">
         <f>'SEGUNDO PARCIAL'!L29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="78">
         <f>'TERCER PARCIAL '!L29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H28" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I28" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>22</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="36" t="str">
         <f>'PRIMER PARCIAL'!B30</f>
-        <v>0</v>
+        <v>RODRIGUEZ LOERA MARIA REGINA</v>
       </c>
       <c r="C29" s="77">
-        <f>'PRIMER PARCIAL'!L30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="77">
-        <f>'SEGUNDO PARCIAL'!L30</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="78">
         <f>'TERCER PARCIAL '!L30</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I29" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>23</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="36" t="str">
         <f>'PRIMER PARCIAL'!B31</f>
-        <v>0</v>
+        <v xml:space="preserve">ROMERO ALEMAN BELINDA BERENICE </v>
       </c>
       <c r="C30" s="77">
         <f>'PRIMER PARCIAL'!L31</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30" s="77">
         <f>'SEGUNDO PARCIAL'!L31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="78">
         <f>'TERCER PARCIAL '!L31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H30" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I30" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>24</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="36" t="str">
         <f>'PRIMER PARCIAL'!B32</f>
-        <v>0</v>
+        <v>SOTO JIMENEZ DIEGO ISAAC</v>
       </c>
       <c r="C31" s="77">
         <f>'PRIMER PARCIAL'!L32</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="77">
         <f>'SEGUNDO PARCIAL'!L32</f>
@@ -7217,61 +8732,60 @@
       </c>
       <c r="E31" s="78">
         <f>'TERCER PARCIAL '!L32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H31" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I31" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>25</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="36" t="str">
         <f>'PRIMER PARCIAL'!B33</f>
-        <v>0</v>
+        <v>TAPIA ROJERO DENISSE GUADALUPE</v>
       </c>
       <c r="C32" s="77">
-        <f>'PRIMER PARCIAL'!L33</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="77">
         <f>'SEGUNDO PARCIAL'!L33</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E32" s="78">
         <f>'TERCER PARCIAL '!L33</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I32" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>26</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="36" t="str">
         <f>'PRIMER PARCIAL'!B34</f>
-        <v>0</v>
+        <v>VAZQUEZ LOPEZ ADRIAN</v>
       </c>
       <c r="C33" s="77">
         <f>'PRIMER PARCIAL'!L34</f>
@@ -7302,42 +8816,42 @@
       <c r="A34" s="33">
         <v>27</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="36" t="str">
         <f>'PRIMER PARCIAL'!B35</f>
-        <v>0</v>
+        <v>VITAL FLORES JOSE EDUARDO</v>
       </c>
       <c r="C34" s="77">
         <f>'PRIMER PARCIAL'!L35</f>
-        <v>0</v>
+        <v>7.6321428571428571</v>
       </c>
       <c r="D34" s="77">
         <f>'SEGUNDO PARCIAL'!L35</f>
-        <v>0</v>
+        <v>6.5019999999999998</v>
       </c>
       <c r="E34" s="78">
-        <f>'TERCER PARCIAL '!L36</f>
-        <v>0</v>
+        <f>'TERCER PARCIAL '!L35</f>
+        <v>7</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.044714285714285</v>
       </c>
       <c r="H34" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0670714285714284</v>
       </c>
       <c r="I34" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.134142857142857</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>28</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="36" t="str">
         <f>'PRIMER PARCIAL'!B36</f>
-        <v>0</v>
+        <v xml:space="preserve">JIMENEZ PADILLA MARIA GUADALUPE </v>
       </c>
       <c r="C35" s="77">
         <f>'PRIMER PARCIAL'!L36</f>
@@ -7348,78 +8862,115 @@
         <v>0</v>
       </c>
       <c r="E35" s="78">
+        <f>'TERCER PARCIAL '!L36</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>29</v>
+      </c>
+      <c r="B36" s="36" t="str">
+        <f>'PRIMER PARCIAL'!B37</f>
+        <v>CERVANTES RAMIREZ ERNESTO</v>
+      </c>
+      <c r="C36" s="77">
+        <f>'PRIMER PARCIAL'!L37</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="77">
+        <f>'SEGUNDO PARCIAL'!L37</f>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="E36" s="78">
         <f>'TERCER PARCIAL '!L37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
+      <c r="F36" s="37">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333339</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="115"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>30</v>
+      </c>
+      <c r="B37" s="36" t="str">
+        <f>'PRIMER PARCIAL'!B38</f>
+        <v>LARA MONROY DENISSE ALESSANDRA</v>
+      </c>
+      <c r="C37" s="77">
+        <v>6</v>
+      </c>
+      <c r="D37" s="77">
+        <f>'SEGUNDO PARCIAL'!L38</f>
+        <v>6.05</v>
+      </c>
+      <c r="E37" s="78">
+        <f>'TERCER PARCIAL '!L38</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="0"/>
+        <v>5.3833333333333329</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="115"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="35">
+      <c r="B38" s="160"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="35">
         <f>AVERAGE(F8:F35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-    </row>
-    <row r="39" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
+        <v>4.4063588435374159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+    </row>
+    <row r="41" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -7427,30 +8978,46 @@
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A40:F41"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C38:E38"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F35">
+  <conditionalFormatting sqref="F8:F37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Archivos Excel/archivo.xlsx
+++ b/Archivos Excel/archivo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistemaInsuma\Pruebas\cargarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0C892-1A58-4AB6-8E0F-9A1A37B7B926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A96483-E248-4561-B670-EFAA46550A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1890,6 +1892,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="46" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="43" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1933,27 +1956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="4" borderId="33" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="45" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="46" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="43" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7831,7 +7833,7 @@
   </sheetPr>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7847,14 +7849,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
       <c r="AK1" s="7"/>
       <c r="AM1" s="6"/>
     </row>
@@ -7923,42 +7925,42 @@
       <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="142" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="141"/>
-      <c r="B7" s="143" t="s">
+      <c r="A7" s="148"/>
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="151"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="158"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="158"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8932,13 +8934,13 @@
       <c r="I37" s="115"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="154"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="35">
         <f>AVERAGE(F8:F35)</f>
         <v>4.4063588435374159</v>
@@ -8996,12 +8998,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A40:F41"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -9010,6 +9006,12 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">

--- a/Archivos Excel/archivo.xlsx
+++ b/Archivos Excel/archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistemaInsuma\Pruebas\cargarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A96483-E248-4561-B670-EFAA46550A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C574A-F72C-40D2-A538-626E98C28B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>ADRIAN CHAVEZ</t>
+  </si>
+  <si>
+    <t>BUÑUELOS ÑOÑO</t>
   </si>
 </sst>
 </file>
@@ -7833,8 +7836,8 @@
   </sheetPr>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,9 +8593,8 @@
       <c r="A27" s="33">
         <v>20</v>
       </c>
-      <c r="B27" s="36" t="str">
-        <f>'PRIMER PARCIAL'!B28</f>
-        <v>RAMIREZ CISNEROS FERNANDO</v>
+      <c r="B27" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="C27" s="77">
         <f>'PRIMER PARCIAL'!L28</f>

--- a/Archivos Excel/archivo.xlsx
+++ b/Archivos Excel/archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistemaInsuma\Pruebas\cargarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C574A-F72C-40D2-A538-626E98C28B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A96483-E248-4561-B670-EFAA46550A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>No.</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>ADRIAN CHAVEZ</t>
-  </si>
-  <si>
-    <t>BUÑUELOS ÑOÑO</t>
   </si>
 </sst>
 </file>
@@ -7836,8 +7833,8 @@
   </sheetPr>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8593,8 +8590,9 @@
       <c r="A27" s="33">
         <v>20</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>101</v>
+      <c r="B27" s="36" t="str">
+        <f>'PRIMER PARCIAL'!B28</f>
+        <v>RAMIREZ CISNEROS FERNANDO</v>
       </c>
       <c r="C27" s="77">
         <f>'PRIMER PARCIAL'!L28</f>
